--- a/Subnetting/Subnetting.xlsx
+++ b/Subnetting/Subnetting.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NetworkingTools\Subnetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB236E7-A706-4645-890B-8E3B0491CC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8743D0A9-29E0-4C93-9E0A-BA1B8D04C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D396EB8A-540E-455F-90D8-37C94D7AED0E}"/>
+    <workbookView xWindow="2265" yWindow="2130" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{D396EB8A-540E-455F-90D8-37C94D7AED0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Subnetting" sheetId="4" r:id="rId1"/>
+    <sheet name="Sizes" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
   <si>
     <t>x</t>
   </si>
@@ -111,14 +112,59 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>userInput</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>octetShow</t>
+  </si>
+  <si>
+    <t>answers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -173,10 +219,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,18 +240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -214,9 +249,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,9 +579,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A502E8-F3A5-41EE-A105-FBE74262A5F2}">
-  <dimension ref="B4:AF58"/>
+  <dimension ref="C4:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -548,35 +599,35 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="6" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="P4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1">
@@ -594,7 +645,7 @@
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="1">
@@ -614,7 +665,7 @@
       </c>
     </row>
     <row r="6" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1">
         <v>3</v>
       </c>
@@ -630,7 +681,7 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
@@ -648,7 +699,7 @@
       </c>
     </row>
     <row r="7" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1">
         <v>2</v>
       </c>
@@ -664,7 +715,7 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="1">
         <v>2</v>
       </c>
@@ -682,7 +733,7 @@
       </c>
     </row>
     <row r="8" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
@@ -698,7 +749,7 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="1">
         <v>1</v>
       </c>
@@ -716,7 +767,7 @@
       </c>
     </row>
     <row r="10" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1">
@@ -734,7 +785,7 @@
       <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="1">
@@ -754,7 +805,7 @@
       </c>
     </row>
     <row r="11" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1">
         <v>3</v>
       </c>
@@ -770,7 +821,7 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="1">
         <v>3</v>
       </c>
@@ -788,7 +839,7 @@
       </c>
     </row>
     <row r="12" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1">
         <v>2</v>
       </c>
@@ -804,7 +855,7 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="1">
         <v>2</v>
       </c>
@@ -822,7 +873,7 @@
       </c>
     </row>
     <row r="13" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -838,7 +889,7 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="P13" s="7"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="1">
         <v>1</v>
       </c>
@@ -856,7 +907,7 @@
       </c>
     </row>
     <row r="15" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1">
@@ -874,7 +925,7 @@
       <c r="I15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q15" s="1">
@@ -894,7 +945,7 @@
       </c>
     </row>
     <row r="16" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1">
         <v>3</v>
       </c>
@@ -910,7 +961,7 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="P16" s="7"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="1">
         <v>3</v>
       </c>
@@ -927,8 +978,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
+    <row r="17" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
       <c r="E17" s="1">
         <v>2</v>
       </c>
@@ -944,7 +995,7 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
@@ -961,8 +1012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
+    <row r="18" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -978,19 +1029,19 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="20" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1">
@@ -1008,7 +1059,7 @@
       <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="1">
@@ -1027,8 +1078,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
+    <row r="21" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="9"/>
       <c r="E21" s="1">
         <v>3</v>
       </c>
@@ -1044,7 +1095,7 @@
       <c r="I21" s="4">
         <v>255</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="1">
         <v>3</v>
       </c>
@@ -1061,8 +1112,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
+    <row r="22" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
       <c r="E22" s="1">
         <v>2</v>
       </c>
@@ -1078,7 +1129,7 @@
       <c r="I22" s="4">
         <v>255</v>
       </c>
-      <c r="P22" s="7"/>
+      <c r="P22" s="9"/>
       <c r="Q22" s="1">
         <v>2</v>
       </c>
@@ -1095,8 +1146,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
+    <row r="23" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="9"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
@@ -1112,7 +1163,7 @@
       <c r="I23" s="4">
         <v>255</v>
       </c>
-      <c r="P23" s="7"/>
+      <c r="P23" s="9"/>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
@@ -1129,8 +1180,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
+    <row r="25" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1">
@@ -1163,7 +1214,7 @@
       <c r="N25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="Q25" s="1">
@@ -1197,8 +1248,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="7"/>
+    <row r="26" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -1229,7 +1280,7 @@
       <c r="N26" s="4">
         <v>254</v>
       </c>
-      <c r="P26" s="7"/>
+      <c r="P26" s="9"/>
       <c r="Q26" s="1">
         <v>3</v>
       </c>
@@ -1261,8 +1312,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="7"/>
+    <row r="27" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
       <c r="E27" s="1">
         <v>2</v>
       </c>
@@ -1293,7 +1344,7 @@
       <c r="N27" s="4">
         <v>254</v>
       </c>
-      <c r="P27" s="7"/>
+      <c r="P27" s="9"/>
       <c r="Q27" s="1">
         <v>2</v>
       </c>
@@ -1325,8 +1376,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="7"/>
+    <row r="28" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
       <c r="E28" s="1">
         <v>1</v>
       </c>
@@ -1357,7 +1408,7 @@
       <c r="N28" s="4">
         <v>254</v>
       </c>
-      <c r="P28" s="7"/>
+      <c r="P28" s="9"/>
       <c r="Q28" s="1">
         <v>1</v>
       </c>
@@ -1389,165 +1440,154 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="12">
+    <row r="30" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D31" s="8">
         <v>4</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8">
         <v>3</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12">
-        <v>2</v>
-      </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12">
-        <v>1</v>
-      </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8">
+        <v>2</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8">
+        <v>1</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+    </row>
+    <row r="32" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D32" s="6">
         <v>208</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="6">
         <v>231</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="6">
         <v>102</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="6">
         <v>235</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="6">
         <v>112</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="6">
         <v>25</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="6">
         <v>253</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="6">
         <v>123</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="6">
         <v>110</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="7">
         <v>235</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="7">
         <v>245</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="7">
         <v>200</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="7">
         <v>251</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="7">
         <v>12</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="7">
         <v>56</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="7">
         <v>12</v>
       </c>
-      <c r="W32" s="11" t="s">
+      <c r="W32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="5">
         <v>208</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="1">
         <v>231</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="1">
         <v>102</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="1">
         <v>254</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8">
+      <c r="I33" s="1">
         <v>112</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="1">
         <v>25</v>
       </c>
-      <c r="K33" s="8">
-        <v>255</v>
-      </c>
-      <c r="L33" s="8">
+      <c r="K33" s="1">
+        <v>255</v>
+      </c>
+      <c r="L33" s="1">
         <v>254</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8">
+      <c r="N33" s="1">
         <v>110</v>
       </c>
-      <c r="O33" s="8">
-        <v>255</v>
-      </c>
-      <c r="P33" s="8">
+      <c r="O33" s="1">
+        <v>255</v>
+      </c>
+      <c r="P33" s="1">
         <v>255</v>
       </c>
       <c r="Q33" s="1">
@@ -1566,44 +1606,41 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+    <row r="34" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="5">
         <v>208</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="1">
         <v>231</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="1">
         <v>102</v>
       </c>
-      <c r="G34" s="8">
-        <v>255</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8">
+      <c r="G34" s="1">
+        <v>255</v>
+      </c>
+      <c r="I34" s="1">
         <v>112</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="1">
         <v>25</v>
       </c>
-      <c r="K34" s="8">
-        <v>255</v>
-      </c>
-      <c r="L34" s="8">
-        <v>255</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8">
+      <c r="K34" s="1">
+        <v>255</v>
+      </c>
+      <c r="L34" s="1">
+        <v>255</v>
+      </c>
+      <c r="N34" s="1">
         <v>110</v>
       </c>
-      <c r="O34" s="8">
-        <v>255</v>
-      </c>
-      <c r="P34" s="8">
+      <c r="O34" s="1">
+        <v>255</v>
+      </c>
+      <c r="P34" s="1">
         <v>255</v>
       </c>
       <c r="Q34" s="1">
@@ -1627,44 +1664,41 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+    <row r="35" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="5">
         <v>208</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="1">
         <v>231</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="1">
         <v>103</v>
       </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
         <v>112</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="1">
         <v>26</v>
       </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8">
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
         <v>111</v>
       </c>
-      <c r="O35" s="8">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8">
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
         <v>0</v>
       </c>
       <c r="Q35" s="1">
@@ -1687,401 +1721,97 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
       <c r="AE36" s="5"/>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
       <c r="AE37" s="5"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
       <c r="AE38" s="5"/>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+    <row r="39" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
       <c r="AE39" s="5"/>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="9"/>
+    <row r="40" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D41" s="5"/>
+      <c r="P41" s="5"/>
       <c r="AE41" s="5"/>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="9"/>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="9"/>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="9"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="9"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="9"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="9"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="9"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="9"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D45" s="5"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D46" s="5"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D48" s="5"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D50" s="5"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D51" s="5"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D52" s="5"/>
+      <c r="P52" s="5"/>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D55" s="5"/>
+      <c r="P55" s="5"/>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D56" s="5"/>
+      <c r="P56" s="5"/>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D57" s="5"/>
+      <c r="P57" s="5"/>
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
       <c r="P58" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="S31:W31"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="P25:P28"/>
     <mergeCell ref="P4:Z4"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D10:D13"/>
@@ -2089,6 +1819,121 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="D4:N4"/>
     <mergeCell ref="R18:U18"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="S31:W31"/>
+    <mergeCell ref="D25:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C198960-85DE-42F1-97C6-7B1974A6605C}">
+  <dimension ref="D3:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15">
+        <f>SUM(E3:E4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17">
+        <f>SUM(F9:F14)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Subnetting/Subnetting.xlsx
+++ b/Subnetting/Subnetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NetworkingTools\Subnetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8743D0A9-29E0-4C93-9E0A-BA1B8D04C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE4024-2A2E-4B07-BB3A-941A57CA3E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2130" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{D396EB8A-540E-455F-90D8-37C94D7AED0E}"/>
+    <workbookView xWindow="4575" yWindow="5880" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{D396EB8A-540E-455F-90D8-37C94D7AED0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Subnetting" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
   <si>
     <t>x</t>
   </si>
@@ -142,12 +142,18 @@
   </si>
   <si>
     <t>answers</t>
+  </si>
+  <si>
+    <t>informations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,24 +252,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,35 +611,35 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="P4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
     </row>
     <row r="5" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1">
@@ -645,7 +657,7 @@
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="1">
@@ -665,7 +677,7 @@
       </c>
     </row>
     <row r="6" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1">
         <v>3</v>
       </c>
@@ -681,7 +693,7 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="9"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
@@ -699,7 +711,7 @@
       </c>
     </row>
     <row r="7" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="9"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1">
         <v>2</v>
       </c>
@@ -715,7 +727,7 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="1">
         <v>2</v>
       </c>
@@ -733,7 +745,7 @@
       </c>
     </row>
     <row r="8" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="9"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
@@ -749,7 +761,7 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="9"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="1">
         <v>1</v>
       </c>
@@ -767,7 +779,7 @@
       </c>
     </row>
     <row r="10" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1">
@@ -785,7 +797,7 @@
       <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="1">
@@ -805,7 +817,7 @@
       </c>
     </row>
     <row r="11" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="9"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1">
         <v>3</v>
       </c>
@@ -821,7 +833,7 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="P11" s="9"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="1">
         <v>3</v>
       </c>
@@ -839,7 +851,7 @@
       </c>
     </row>
     <row r="12" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="9"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1">
         <v>2</v>
       </c>
@@ -855,7 +867,7 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="P12" s="9"/>
+      <c r="P12" s="13"/>
       <c r="Q12" s="1">
         <v>2</v>
       </c>
@@ -873,7 +885,7 @@
       </c>
     </row>
     <row r="13" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="9"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -889,7 +901,7 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="P13" s="9"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="1">
         <v>1</v>
       </c>
@@ -907,7 +919,7 @@
       </c>
     </row>
     <row r="15" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1">
@@ -925,7 +937,7 @@
       <c r="I15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="Q15" s="1">
@@ -945,7 +957,7 @@
       </c>
     </row>
     <row r="16" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="9"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="1">
         <v>3</v>
       </c>
@@ -961,7 +973,7 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="P16" s="9"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="1">
         <v>3</v>
       </c>
@@ -979,7 +991,7 @@
       </c>
     </row>
     <row r="17" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="9"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1">
         <v>2</v>
       </c>
@@ -995,7 +1007,7 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="9"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
@@ -1013,7 +1025,7 @@
       </c>
     </row>
     <row r="18" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="9"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1029,19 +1041,19 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="P18" s="9"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
     </row>
     <row r="20" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1">
@@ -1059,7 +1071,7 @@
       <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="1">
@@ -1079,7 +1091,7 @@
       </c>
     </row>
     <row r="21" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="9"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1">
         <v>3</v>
       </c>
@@ -1095,7 +1107,7 @@
       <c r="I21" s="4">
         <v>255</v>
       </c>
-      <c r="P21" s="9"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="1">
         <v>3</v>
       </c>
@@ -1113,7 +1125,7 @@
       </c>
     </row>
     <row r="22" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="9"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="1">
         <v>2</v>
       </c>
@@ -1129,7 +1141,7 @@
       <c r="I22" s="4">
         <v>255</v>
       </c>
-      <c r="P22" s="9"/>
+      <c r="P22" s="13"/>
       <c r="Q22" s="1">
         <v>2</v>
       </c>
@@ -1147,7 +1159,7 @@
       </c>
     </row>
     <row r="23" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="9"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
@@ -1163,7 +1175,7 @@
       <c r="I23" s="4">
         <v>255</v>
       </c>
-      <c r="P23" s="9"/>
+      <c r="P23" s="13"/>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
@@ -1181,7 +1193,7 @@
       </c>
     </row>
     <row r="25" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1">
@@ -1214,7 +1226,7 @@
       <c r="N25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="13" t="s">
         <v>14</v>
       </c>
       <c r="Q25" s="1">
@@ -1249,7 +1261,7 @@
       </c>
     </row>
     <row r="26" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="9"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -1280,7 +1292,7 @@
       <c r="N26" s="4">
         <v>254</v>
       </c>
-      <c r="P26" s="9"/>
+      <c r="P26" s="13"/>
       <c r="Q26" s="1">
         <v>3</v>
       </c>
@@ -1313,7 +1325,7 @@
       </c>
     </row>
     <row r="27" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="1">
         <v>2</v>
       </c>
@@ -1344,7 +1356,7 @@
       <c r="N27" s="4">
         <v>254</v>
       </c>
-      <c r="P27" s="9"/>
+      <c r="P27" s="13"/>
       <c r="Q27" s="1">
         <v>2</v>
       </c>
@@ -1377,7 +1389,7 @@
       </c>
     </row>
     <row r="28" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="9"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="1">
         <v>1</v>
       </c>
@@ -1408,7 +1420,7 @@
       <c r="N28" s="4">
         <v>254</v>
       </c>
-      <c r="P28" s="9"/>
+      <c r="P28" s="13"/>
       <c r="Q28" s="1">
         <v>1</v>
       </c>
@@ -1454,34 +1466,34 @@
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D31" s="8">
+      <c r="D31" s="14">
         <v>4</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14">
         <v>3</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8">
-        <v>2</v>
-      </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8">
-        <v>1</v>
-      </c>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14">
+        <v>2</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14">
+        <v>1</v>
+      </c>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
     </row>
     <row r="32" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
@@ -1837,40 +1849,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C198960-85DE-42F1-97C6-7B1974A6605C}">
-  <dimension ref="D3:F15"/>
+  <dimension ref="D3:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="P9" sqref="I1:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="13" t="s">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="14" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <f>SUM(E3:E4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1907,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>31</v>
       </c>
@@ -1889,7 +1915,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>32</v>
       </c>
@@ -1897,7 +1923,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>33</v>
       </c>
@@ -1905,7 +1931,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>34</v>
       </c>
@@ -1913,27 +1939,37 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="12">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="16" t="s">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="12">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17">
-        <f>SUM(F9:F14)</f>
-        <v>0.99999999999999989</v>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17">
+        <f>SUM(F9:F15)</f>
+        <v>1.0049999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D15:E15"/>
+  <mergeCells count="3">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Subnetting/Subnetting.xlsx
+++ b/Subnetting/Subnetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NetworkingTools\Subnetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE4024-2A2E-4B07-BB3A-941A57CA3E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14D5250-9E5C-4C8D-8141-2583F33407A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="5880" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{D396EB8A-540E-455F-90D8-37C94D7AED0E}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{D396EB8A-540E-455F-90D8-37C94D7AED0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Subnetting" sheetId="4" r:id="rId1"/>
@@ -257,19 +257,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,35 +611,35 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="P4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1">
@@ -657,7 +657,7 @@
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="1">
@@ -677,7 +677,7 @@
       </c>
     </row>
     <row r="6" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1">
         <v>3</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
       </c>
     </row>
     <row r="7" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="13"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1">
         <v>2</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="1">
         <v>2</v>
       </c>
@@ -745,7 +745,7 @@
       </c>
     </row>
     <row r="8" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="13"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="1">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
       </c>
     </row>
     <row r="10" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1">
@@ -797,7 +797,7 @@
       <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="15" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="1">
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="11" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="13"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1">
         <v>3</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="1">
         <v>3</v>
       </c>
@@ -851,7 +851,7 @@
       </c>
     </row>
     <row r="12" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="13"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1">
         <v>2</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="P12" s="13"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="1">
         <v>2</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
     </row>
     <row r="13" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="P13" s="13"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="1">
         <v>1</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="15" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1">
@@ -937,7 +937,7 @@
       <c r="I15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="15" t="s">
         <v>7</v>
       </c>
       <c r="Q15" s="1">
@@ -957,7 +957,7 @@
       </c>
     </row>
     <row r="16" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="13"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1">
         <v>3</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="P16" s="13"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="1">
         <v>3</v>
       </c>
@@ -991,7 +991,7 @@
       </c>
     </row>
     <row r="17" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1">
         <v>2</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="13"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="18" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="13"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1041,19 +1041,19 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
     </row>
     <row r="20" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1">
@@ -1071,7 +1071,7 @@
       <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="1">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="21" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="13"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1">
         <v>3</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="I21" s="4">
         <v>255</v>
       </c>
-      <c r="P21" s="13"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="1">
         <v>3</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
     </row>
     <row r="22" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="13"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="1">
         <v>2</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="I22" s="4">
         <v>255</v>
       </c>
-      <c r="P22" s="13"/>
+      <c r="P22" s="15"/>
       <c r="Q22" s="1">
         <v>2</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="23" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="13"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="I23" s="4">
         <v>255</v>
       </c>
-      <c r="P23" s="13"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
     </row>
     <row r="25" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1">
@@ -1226,7 +1226,7 @@
       <c r="N25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="15" t="s">
         <v>14</v>
       </c>
       <c r="Q25" s="1">
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="26" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="13"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="N26" s="4">
         <v>254</v>
       </c>
-      <c r="P26" s="13"/>
+      <c r="P26" s="15"/>
       <c r="Q26" s="1">
         <v>3</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="27" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="13"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="1">
         <v>2</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="N27" s="4">
         <v>254</v>
       </c>
-      <c r="P27" s="13"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="1">
         <v>2</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
     </row>
     <row r="28" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="13"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="1">
         <v>1</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="N28" s="4">
         <v>254</v>
       </c>
-      <c r="P28" s="13"/>
+      <c r="P28" s="15"/>
       <c r="Q28" s="1">
         <v>1</v>
       </c>
@@ -1466,34 +1466,34 @@
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D31" s="14">
+      <c r="D31" s="16">
         <v>4</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
         <v>3</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>2</v>
-      </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14">
-        <v>1</v>
-      </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16">
+        <v>2</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16">
+        <v>1</v>
+      </c>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
     </row>
     <row r="32" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
@@ -1824,6 +1824,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="S31:W31"/>
+    <mergeCell ref="D25:D28"/>
     <mergeCell ref="P4:Z4"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D10:D13"/>
@@ -1835,12 +1841,6 @@
     <mergeCell ref="P10:P13"/>
     <mergeCell ref="P15:P18"/>
     <mergeCell ref="P20:P23"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="S31:W31"/>
-    <mergeCell ref="D25:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1852,7 +1852,7 @@
   <dimension ref="D3:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="I1:P9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,11 +1956,11 @@
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17">
+      <c r="E16" s="17"/>
+      <c r="F16" s="13">
         <f>SUM(F9:F15)</f>
         <v>1.0049999999999999</v>
       </c>
